--- a/export_dv.xlsx
+++ b/export_dv.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DV'!$A$1:$AG$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'RCI'!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,7 +61,7 @@
     <t>Payee</t>
   </si>
   <si>
-    <t>livelo  Trading</t>
+    <t>Melcheshoe Trading</t>
   </si>
   <si>
     <t xml:space="preserve">TIN/Employee No.: </t>
@@ -73,7 +73,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>National Highway, Dayap Caluan Laguna</t>
+    <t>Unit 8 EVC Townhomes, 454 San Agustin 2, DasmariÃ±as, C</t>
   </si>
   <si>
     <t>Particulars</t>
@@ -91,7 +91,7 @@
     <t>Payment for the procurement of</t>
   </si>
   <si>
-    <t xml:space="preserve">Conduct of Orientation on Enhanced Local Climate Change Action Plan (LCCAP)   </t>
+    <t xml:space="preserve">Equipment for the installation of Public Address System in the Regional Office      </t>
   </si>
   <si>
     <t>Please see attachment/s:</t>
@@ -145,7 +145,7 @@
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>Chief, FAD</t>
   </si>
   <si>
     <t>B.</t>
@@ -199,7 +199,7 @@
     <t>RESTITUTO B. NAÑEZ III</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
+    <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
     <t>Position</t>
@@ -208,7 +208,7 @@
     <t>Regional Accountant</t>
   </si>
   <si>
-    <t>Assistant Regional Director</t>
+    <t>Regional Director</t>
   </si>
   <si>
     <t>Date</t>
@@ -628,21 +628,21 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -669,33 +669,6 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
@@ -712,6 +685,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b val="1"/>
@@ -1093,6 +1093,93 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1110,93 +1197,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <left style="medium">
@@ -1695,72 +1695,462 @@
     <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="23" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="24" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="25" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="25" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="25" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="4" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="4" fillId="2" borderId="31" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -1785,22 +2175,16 @@
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1809,393 +2193,21 @@
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="21" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="45" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="46" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="21" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="49" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="23" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="4" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="4" fillId="2" borderId="31" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="24" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="24" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="22" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="25" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="25" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2208,18 +2220,6 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="29" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2238,10 +2238,10 @@
     <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="180" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2570,287 +2570,287 @@
   <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="true" style="88"/>
+    <col min="1" max="1" width="2.5703125" customWidth="true" style="88"/>
     <col min="2" max="2" width="4" customWidth="true" style="88"/>
-    <col min="3" max="3" width="3.6640625" customWidth="true" style="88"/>
-    <col min="4" max="4" width="1.5546875" customWidth="true" style="88"/>
-    <col min="5" max="5" width="2.44140625" customWidth="true" style="88"/>
-    <col min="6" max="6" width="2.88671875" customWidth="true" style="88"/>
-    <col min="7" max="7" width="2.88671875" customWidth="true" style="88"/>
-    <col min="8" max="8" width="2.88671875" customWidth="true" style="88"/>
-    <col min="9" max="9" width="2.88671875" customWidth="true" style="88"/>
-    <col min="10" max="10" width="2.88671875" customWidth="true" style="88"/>
-    <col min="11" max="11" width="2.88671875" customWidth="true" style="88"/>
-    <col min="12" max="12" width="2.88671875" customWidth="true" style="88"/>
-    <col min="13" max="13" width="2.88671875" customWidth="true" style="88"/>
-    <col min="14" max="14" width="2.88671875" customWidth="true" style="88"/>
-    <col min="15" max="15" width="2.88671875" customWidth="true" style="88"/>
-    <col min="16" max="16" width="2.88671875" customWidth="true" style="88"/>
-    <col min="17" max="17" width="2.88671875" customWidth="true" style="88"/>
-    <col min="18" max="18" width="3.6640625" customWidth="true" style="88"/>
-    <col min="19" max="19" width="2.88671875" customWidth="true" style="88"/>
-    <col min="20" max="20" width="2.88671875" customWidth="true" style="88"/>
-    <col min="21" max="21" width="2.88671875" customWidth="true" style="88"/>
-    <col min="22" max="22" width="2.88671875" customWidth="true" style="88"/>
-    <col min="23" max="23" width="2.88671875" customWidth="true" style="88"/>
-    <col min="24" max="24" width="2.88671875" customWidth="true" style="88"/>
-    <col min="25" max="25" width="2.88671875" customWidth="true" style="88"/>
-    <col min="26" max="26" width="2.88671875" customWidth="true" style="88"/>
-    <col min="27" max="27" width="2.88671875" customWidth="true" style="88"/>
-    <col min="28" max="28" width="2.88671875" customWidth="true" style="88"/>
-    <col min="29" max="29" width="2.88671875" customWidth="true" style="88"/>
-    <col min="30" max="30" width="2.88671875" customWidth="true" style="88"/>
-    <col min="31" max="31" width="2.88671875" customWidth="true" style="88"/>
-    <col min="32" max="32" width="2.88671875" customWidth="true" style="88"/>
+    <col min="3" max="3" width="3.7109375" customWidth="true" style="88"/>
+    <col min="4" max="4" width="1.5703125" hidden="true" customWidth="true" style="88"/>
+    <col min="5" max="5" width="2.42578125" customWidth="true" style="88"/>
+    <col min="6" max="6" width="2.85546875" customWidth="true" style="88"/>
+    <col min="7" max="7" width="2.85546875" customWidth="true" style="88"/>
+    <col min="8" max="8" width="2.85546875" customWidth="true" style="88"/>
+    <col min="9" max="9" width="2.85546875" customWidth="true" style="88"/>
+    <col min="10" max="10" width="2.85546875" customWidth="true" style="88"/>
+    <col min="11" max="11" width="2.85546875" customWidth="true" style="88"/>
+    <col min="12" max="12" width="2.85546875" customWidth="true" style="88"/>
+    <col min="13" max="13" width="2.85546875" customWidth="true" style="88"/>
+    <col min="14" max="14" width="2.85546875" customWidth="true" style="88"/>
+    <col min="15" max="15" width="2.85546875" customWidth="true" style="88"/>
+    <col min="16" max="16" width="2.85546875" customWidth="true" style="88"/>
+    <col min="17" max="17" width="2.85546875" customWidth="true" style="88"/>
+    <col min="18" max="18" width="3.7109375" customWidth="true" style="88"/>
+    <col min="19" max="19" width="2.85546875" customWidth="true" style="88"/>
+    <col min="20" max="20" width="2.85546875" customWidth="true" style="88"/>
+    <col min="21" max="21" width="2.85546875" customWidth="true" style="88"/>
+    <col min="22" max="22" width="2.85546875" customWidth="true" style="88"/>
+    <col min="23" max="23" width="2.85546875" customWidth="true" style="88"/>
+    <col min="24" max="24" width="2.85546875" customWidth="true" style="88"/>
+    <col min="25" max="25" width="2.85546875" customWidth="true" style="88"/>
+    <col min="26" max="26" width="2.85546875" customWidth="true" style="88"/>
+    <col min="27" max="27" width="2.85546875" customWidth="true" style="88"/>
+    <col min="28" max="28" width="2.85546875" customWidth="true" style="88"/>
+    <col min="29" max="29" width="2.85546875" customWidth="true" style="88"/>
+    <col min="30" max="30" width="2.85546875" customWidth="true" style="88"/>
+    <col min="31" max="31" width="2.85546875" customWidth="true" style="88"/>
+    <col min="32" max="32" width="2.85546875" customWidth="true" style="88"/>
     <col min="33" max="33" width="4" customWidth="true" style="88"/>
-    <col min="34" max="34" width="0.109375" customWidth="true" style="88"/>
-    <col min="35" max="35" width="8.88671875" customWidth="true" style="88"/>
+    <col min="34" max="34" width="0.140625" hidden="true" customWidth="true" style="88"/>
+    <col min="35" max="35" width="8.85546875" customWidth="true" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" customHeight="1" ht="18.75">
-      <c r="AB1" s="307" t="s">
+      <c r="AB1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="307"/>
-      <c r="AD1" s="307"/>
-      <c r="AE1" s="307"/>
-      <c r="AF1" s="307"/>
-      <c r="AG1" s="307"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="190"/>
     </row>
     <row r="2" spans="1:41" customHeight="1" ht="21">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311" t="s">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="312"/>
-      <c r="AD2" s="312"/>
-      <c r="AE2" s="312"/>
-      <c r="AF2" s="312"/>
-      <c r="AG2" s="313"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
     </row>
     <row r="3" spans="1:41" customHeight="1" ht="15.75">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="315"/>
-      <c r="R3" s="315"/>
-      <c r="S3" s="315"/>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="315"/>
-      <c r="W3" s="315"/>
-      <c r="X3" s="315"/>
-      <c r="Y3" s="315"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="316"/>
-      <c r="AB3" s="317"/>
-      <c r="AC3" s="318"/>
-      <c r="AD3" s="318"/>
-      <c r="AE3" s="318"/>
-      <c r="AF3" s="318"/>
-      <c r="AG3" s="319"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="202"/>
     </row>
     <row r="4" spans="1:41" customHeight="1" ht="15">
-      <c r="A4" s="293" t="s">
+      <c r="A4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="294"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
-      <c r="N4" s="294"/>
-      <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294"/>
-      <c r="R4" s="294"/>
-      <c r="S4" s="294"/>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294"/>
-      <c r="X4" s="294"/>
-      <c r="Y4" s="294"/>
-      <c r="Z4" s="294"/>
-      <c r="AA4" s="295"/>
-      <c r="AB4" s="299" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="300"/>
-      <c r="AD4" s="300"/>
-      <c r="AE4" s="300"/>
-      <c r="AF4" s="300"/>
-      <c r="AG4" s="301"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="162"/>
     </row>
     <row r="5" spans="1:41" customHeight="1" ht="15">
-      <c r="A5" s="293"/>
-      <c r="B5" s="294"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="294"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="294"/>
-      <c r="R5" s="294"/>
-      <c r="S5" s="294"/>
-      <c r="T5" s="294"/>
-      <c r="U5" s="294"/>
-      <c r="V5" s="294"/>
-      <c r="W5" s="294"/>
-      <c r="X5" s="294"/>
-      <c r="Y5" s="294"/>
-      <c r="Z5" s="294"/>
-      <c r="AA5" s="295"/>
-      <c r="AB5" s="302" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="303"/>
-      <c r="AE5" s="303"/>
-      <c r="AF5" s="303"/>
-      <c r="AG5" s="304"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="165"/>
     </row>
     <row r="6" spans="1:41" customHeight="1" ht="15.6">
-      <c r="A6" s="296"/>
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="297"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="297"/>
-      <c r="L6" s="297"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="297"/>
-      <c r="O6" s="297"/>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
-      <c r="U6" s="297"/>
-      <c r="V6" s="297"/>
-      <c r="W6" s="297"/>
-      <c r="X6" s="297"/>
-      <c r="Y6" s="297"/>
-      <c r="Z6" s="297"/>
-      <c r="AA6" s="298"/>
-      <c r="AB6" s="305"/>
-      <c r="AC6" s="305"/>
-      <c r="AD6" s="305"/>
-      <c r="AE6" s="305"/>
-      <c r="AF6" s="305"/>
-      <c r="AG6" s="306"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="167"/>
     </row>
     <row r="7" spans="1:41" customHeight="1" ht="9.75" s="84" customFormat="1">
-      <c r="A7" s="276" t="s">
+      <c r="A7" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
       <c r="D7" s="90"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="168"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="187"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="187"/>
+      <c r="AB7" s="187"/>
+      <c r="AC7" s="187"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="188"/>
       <c r="AH7" s="87"/>
     </row>
     <row r="8" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A8" s="279"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="281"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="88"/>
       <c r="E8" s="92"/>
       <c r="F8" s="93"/>
@@ -2889,26 +2889,26 @@
       <c r="AH8" s="87"/>
     </row>
     <row r="9" spans="1:41" customHeight="1" ht="14.25" s="84" customFormat="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="283"/>
-      <c r="C9" s="284"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="89"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
       <c r="I9" s="89"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
       <c r="N9" s="97"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
       <c r="U9" s="93"/>
       <c r="V9" s="93"/>
       <c r="W9" s="93"/>
@@ -2925,108 +2925,108 @@
       <c r="AH9" s="87"/>
     </row>
     <row r="10" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="278"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="99"/>
-      <c r="E10" s="288" t="s">
+      <c r="E10" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="289"/>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="285" t="s">
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="286"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="286"/>
-      <c r="W10" s="286"/>
-      <c r="X10" s="286"/>
-      <c r="Y10" s="286"/>
-      <c r="Z10" s="286"/>
-      <c r="AA10" s="287"/>
-      <c r="AB10" s="250" t="s">
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="250"/>
-      <c r="AD10" s="250"/>
-      <c r="AE10" s="250"/>
-      <c r="AF10" s="250"/>
-      <c r="AG10" s="251"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="213"/>
       <c r="AH10" s="86"/>
     </row>
     <row r="11" spans="1:41" customHeight="1" ht="12" s="84" customFormat="1">
-      <c r="A11" s="279"/>
-      <c r="B11" s="280"/>
-      <c r="C11" s="281"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="291"/>
-      <c r="G11" s="291"/>
-      <c r="H11" s="291"/>
-      <c r="I11" s="291"/>
-      <c r="J11" s="291"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="291"/>
-      <c r="N11" s="291"/>
-      <c r="O11" s="291"/>
-      <c r="P11" s="291"/>
-      <c r="Q11" s="291"/>
-      <c r="R11" s="291"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="253"/>
-      <c r="U11" s="253"/>
-      <c r="V11" s="253"/>
-      <c r="W11" s="253"/>
-      <c r="X11" s="253"/>
-      <c r="Y11" s="253"/>
-      <c r="Z11" s="253"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="155"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="214"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="215"/>
+      <c r="X11" s="215"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="215"/>
+      <c r="AA11" s="216"/>
+      <c r="AB11" s="181"/>
+      <c r="AC11" s="181"/>
+      <c r="AD11" s="181"/>
+      <c r="AE11" s="181"/>
+      <c r="AF11" s="181"/>
+      <c r="AG11" s="217"/>
       <c r="AH11" s="87"/>
     </row>
     <row r="12" spans="1:41" customHeight="1" ht="12" s="84" customFormat="1">
-      <c r="A12" s="244" t="s">
+      <c r="A12" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="263"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="226"/>
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
@@ -3046,24 +3046,24 @@
       <c r="AO12" s="152"/>
     </row>
     <row r="13" spans="1:41" customHeight="1" ht="12" s="84" customFormat="1">
-      <c r="A13" s="247"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="89"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="265"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="265"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="265"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="228"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="228"/>
+      <c r="R13" s="228"/>
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
@@ -3081,69 +3081,69 @@
       <c r="AG13" s="98"/>
       <c r="AH13" s="100"/>
     </row>
-    <row r="14" spans="1:41" customHeight="1" ht="28.2" s="102" customFormat="1">
-      <c r="A14" s="255" t="s">
+    <row r="14" spans="1:41" customHeight="1" ht="28.15" s="102" customFormat="1">
+      <c r="A14" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="256"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="258" t="s">
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="259"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="259"/>
-      <c r="V14" s="260"/>
-      <c r="W14" s="258" t="s">
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="223"/>
+      <c r="W14" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="258" t="s">
+      <c r="X14" s="219"/>
+      <c r="Y14" s="219"/>
+      <c r="Z14" s="219"/>
+      <c r="AA14" s="220"/>
+      <c r="AB14" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="261"/>
+      <c r="AC14" s="219"/>
+      <c r="AD14" s="219"/>
+      <c r="AE14" s="219"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="224"/>
       <c r="AH14" s="101"/>
     </row>
-    <row r="15" spans="1:41" customHeight="1" ht="14.4" s="84" customFormat="1">
+    <row r="15" spans="1:41" customHeight="1" ht="14.45" s="84" customFormat="1">
       <c r="A15" s="103"/>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="266"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="266"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="24"/>
       <c r="S15" s="84"/>
@@ -3155,35 +3155,35 @@
       <c r="Y15" s="84"/>
       <c r="Z15" s="84"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="267">
-        <v>50200</v>
-      </c>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="268"/>
-      <c r="AF15" s="268"/>
-      <c r="AG15" s="269"/>
+      <c r="AB15" s="229">
+        <v>97095.75</v>
+      </c>
+      <c r="AC15" s="230"/>
+      <c r="AD15" s="230"/>
+      <c r="AE15" s="230"/>
+      <c r="AF15" s="230"/>
+      <c r="AG15" s="231"/>
       <c r="AH15" s="87"/>
     </row>
     <row r="16" spans="1:41" customHeight="1" ht="78" s="84" customFormat="1">
       <c r="A16" s="103"/>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="24"/>
       <c r="S16" s="84"/>
@@ -3659,23 +3659,23 @@
     </row>
     <row r="29" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A29" s="103"/>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="266"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="24"/>
       <c r="S29" s="84"/>
@@ -3696,25 +3696,25 @@
       <c r="AH29" s="87"/>
     </row>
     <row r="30" spans="1:41" customHeight="1" ht="16.5" s="84" customFormat="1">
-      <c r="A30" s="273" t="s">
+      <c r="A30" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="274"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="274"/>
-      <c r="L30" s="274"/>
-      <c r="M30" s="274"/>
-      <c r="N30" s="274"/>
-      <c r="O30" s="274"/>
-      <c r="P30" s="274"/>
-      <c r="Q30" s="275"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="236"/>
+      <c r="L30" s="236"/>
+      <c r="M30" s="236"/>
+      <c r="N30" s="236"/>
+      <c r="O30" s="236"/>
+      <c r="P30" s="236"/>
+      <c r="Q30" s="237"/>
       <c r="R30" s="104"/>
       <c r="S30" s="105"/>
       <c r="T30" s="105"/>
@@ -3725,56 +3725,56 @@
       <c r="Y30" s="105"/>
       <c r="Z30" s="105"/>
       <c r="AA30" s="25"/>
-      <c r="AB30" s="270">
+      <c r="AB30" s="232" t="str">
         <f>SUM(AB15:AG29)</f>
-        <v>50200</v>
-      </c>
-      <c r="AC30" s="271"/>
-      <c r="AD30" s="271"/>
-      <c r="AE30" s="271"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="272"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="233"/>
+      <c r="AD30" s="233"/>
+      <c r="AE30" s="233"/>
+      <c r="AF30" s="233"/>
+      <c r="AG30" s="234"/>
       <c r="AH30" s="87"/>
       <c r="AI30" s="107"/>
     </row>
-    <row r="31" spans="1:41" customHeight="1" ht="13.95" s="84" customFormat="1">
+    <row r="31" spans="1:41" customHeight="1" ht="13.9" s="84" customFormat="1">
       <c r="A31" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="241" t="s">
+      <c r="B31" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="241"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="242"/>
-      <c r="AC31" s="242"/>
-      <c r="AD31" s="242"/>
-      <c r="AE31" s="242"/>
-      <c r="AF31" s="242"/>
-      <c r="AG31" s="243"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="203"/>
+      <c r="O31" s="203"/>
+      <c r="P31" s="203"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="203"/>
+      <c r="S31" s="203"/>
+      <c r="T31" s="203"/>
+      <c r="U31" s="203"/>
+      <c r="V31" s="203"/>
+      <c r="W31" s="203"/>
+      <c r="X31" s="203"/>
+      <c r="Y31" s="203"/>
+      <c r="Z31" s="203"/>
+      <c r="AA31" s="203"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="204"/>
+      <c r="AF31" s="204"/>
+      <c r="AG31" s="205"/>
       <c r="AH31" s="87"/>
       <c r="AI31" s="107"/>
     </row>
@@ -3819,78 +3819,78 @@
     </row>
     <row r="33" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
       <c r="A33" s="109"/>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="233"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="233"/>
-      <c r="AA33" s="233"/>
-      <c r="AB33" s="233"/>
-      <c r="AC33" s="233"/>
-      <c r="AD33" s="233"/>
-      <c r="AE33" s="233"/>
-      <c r="AF33" s="233"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="239"/>
+      <c r="G33" s="239"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="239"/>
+      <c r="J33" s="239"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="239"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="239"/>
+      <c r="R33" s="239"/>
+      <c r="S33" s="239"/>
+      <c r="T33" s="239"/>
+      <c r="U33" s="239"/>
+      <c r="V33" s="239"/>
+      <c r="W33" s="239"/>
+      <c r="X33" s="239"/>
+      <c r="Y33" s="239"/>
+      <c r="Z33" s="239"/>
+      <c r="AA33" s="239"/>
+      <c r="AB33" s="239"/>
+      <c r="AC33" s="239"/>
+      <c r="AD33" s="239"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="239"/>
       <c r="AG33" s="113"/>
       <c r="AH33" s="87"/>
       <c r="AI33" s="107"/>
     </row>
     <row r="34" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
       <c r="A34" s="109"/>
-      <c r="B34" s="234" t="s">
+      <c r="B34" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="234"/>
-      <c r="T34" s="234"/>
-      <c r="U34" s="234"/>
-      <c r="V34" s="234"/>
-      <c r="W34" s="234"/>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="234"/>
-      <c r="AA34" s="234"/>
-      <c r="AB34" s="234"/>
-      <c r="AC34" s="234"/>
-      <c r="AD34" s="234"/>
-      <c r="AE34" s="234"/>
-      <c r="AF34" s="234"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="240"/>
+      <c r="H34" s="240"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="240"/>
+      <c r="M34" s="240"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="240"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="240"/>
+      <c r="R34" s="240"/>
+      <c r="S34" s="240"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="240"/>
+      <c r="V34" s="240"/>
+      <c r="W34" s="240"/>
+      <c r="X34" s="240"/>
+      <c r="Y34" s="240"/>
+      <c r="Z34" s="240"/>
+      <c r="AA34" s="240"/>
+      <c r="AB34" s="240"/>
+      <c r="AC34" s="240"/>
+      <c r="AD34" s="240"/>
+      <c r="AE34" s="240"/>
+      <c r="AF34" s="240"/>
       <c r="AG34" s="113"/>
       <c r="AH34" s="87"/>
       <c r="AI34" s="107"/>
@@ -3907,19 +3907,19 @@
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
-      <c r="L35" s="235"/>
-      <c r="M35" s="235"/>
-      <c r="N35" s="235"/>
-      <c r="O35" s="235"/>
-      <c r="P35" s="235"/>
-      <c r="Q35" s="235"/>
-      <c r="R35" s="235"/>
-      <c r="S35" s="235"/>
-      <c r="T35" s="235"/>
-      <c r="U35" s="235"/>
-      <c r="V35" s="235"/>
-      <c r="W35" s="235"/>
-      <c r="X35" s="235"/>
+      <c r="L35" s="241"/>
+      <c r="M35" s="241"/>
+      <c r="N35" s="241"/>
+      <c r="O35" s="241"/>
+      <c r="P35" s="241"/>
+      <c r="Q35" s="241"/>
+      <c r="R35" s="241"/>
+      <c r="S35" s="241"/>
+      <c r="T35" s="241"/>
+      <c r="U35" s="241"/>
+      <c r="V35" s="241"/>
+      <c r="W35" s="241"/>
+      <c r="X35" s="241"/>
       <c r="Y35" s="93"/>
       <c r="Z35" s="111"/>
       <c r="AA35" s="111"/>
@@ -3944,19 +3944,19 @@
       <c r="I36" s="88"/>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
-      <c r="L36" s="235"/>
-      <c r="M36" s="235"/>
-      <c r="N36" s="235"/>
-      <c r="O36" s="235"/>
-      <c r="P36" s="235"/>
-      <c r="Q36" s="235"/>
-      <c r="R36" s="235"/>
-      <c r="S36" s="235"/>
-      <c r="T36" s="235"/>
-      <c r="U36" s="235"/>
-      <c r="V36" s="235"/>
-      <c r="W36" s="235"/>
-      <c r="X36" s="235"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="241"/>
+      <c r="N36" s="241"/>
+      <c r="O36" s="241"/>
+      <c r="P36" s="241"/>
+      <c r="Q36" s="241"/>
+      <c r="R36" s="241"/>
+      <c r="S36" s="241"/>
+      <c r="T36" s="241"/>
+      <c r="U36" s="241"/>
+      <c r="V36" s="241"/>
+      <c r="W36" s="241"/>
+      <c r="X36" s="241"/>
       <c r="Y36" s="88"/>
       <c r="Z36" s="88"/>
       <c r="AA36" s="88"/>
@@ -4011,47 +4011,47 @@
       <c r="AI37" s="107"/>
     </row>
     <row r="38" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
-      <c r="A38" s="236" t="s">
+      <c r="A38" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="237"/>
-      <c r="C38" s="237"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="237"/>
-      <c r="K38" s="237"/>
-      <c r="L38" s="237"/>
-      <c r="M38" s="237"/>
-      <c r="N38" s="237"/>
-      <c r="O38" s="237"/>
-      <c r="P38" s="237"/>
-      <c r="Q38" s="237"/>
-      <c r="R38" s="237"/>
-      <c r="S38" s="237" t="s">
+      <c r="B38" s="243"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="243"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="243"/>
+      <c r="K38" s="243"/>
+      <c r="L38" s="243"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="243"/>
+      <c r="P38" s="243"/>
+      <c r="Q38" s="243"/>
+      <c r="R38" s="243"/>
+      <c r="S38" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="T38" s="237"/>
-      <c r="U38" s="237"/>
-      <c r="V38" s="237"/>
-      <c r="W38" s="237"/>
-      <c r="X38" s="238" t="s">
+      <c r="T38" s="243"/>
+      <c r="U38" s="243"/>
+      <c r="V38" s="243"/>
+      <c r="W38" s="243"/>
+      <c r="X38" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="Y38" s="238"/>
-      <c r="Z38" s="238"/>
-      <c r="AA38" s="238"/>
-      <c r="AB38" s="238"/>
-      <c r="AC38" s="239" t="s">
+      <c r="Y38" s="244"/>
+      <c r="Z38" s="244"/>
+      <c r="AA38" s="244"/>
+      <c r="AB38" s="244"/>
+      <c r="AC38" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="239"/>
-      <c r="AE38" s="239"/>
-      <c r="AF38" s="239"/>
-      <c r="AG38" s="240"/>
+      <c r="AD38" s="245"/>
+      <c r="AE38" s="245"/>
+      <c r="AF38" s="245"/>
+      <c r="AG38" s="246"/>
       <c r="AH38" s="87"/>
       <c r="AI38" s="107"/>
     </row>
@@ -4190,19 +4190,19 @@
       <c r="S42" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="221" t="s">
+      <c r="T42" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="221"/>
-      <c r="V42" s="221"/>
-      <c r="W42" s="221"/>
-      <c r="X42" s="221"/>
-      <c r="Y42" s="221"/>
-      <c r="Z42" s="221"/>
-      <c r="AA42" s="221"/>
-      <c r="AB42" s="221"/>
-      <c r="AC42" s="221"/>
-      <c r="AD42" s="221"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
+      <c r="X42" s="247"/>
+      <c r="Y42" s="247"/>
+      <c r="Z42" s="247"/>
+      <c r="AA42" s="247"/>
+      <c r="AB42" s="247"/>
+      <c r="AC42" s="247"/>
+      <c r="AD42" s="247"/>
       <c r="AE42" s="134"/>
       <c r="AF42" s="134"/>
       <c r="AG42" s="135"/>
@@ -4229,31 +4229,31 @@
       <c r="P43" s="88"/>
       <c r="Q43" s="88"/>
       <c r="R43" s="115"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="223"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="223"/>
-      <c r="W43" s="223"/>
-      <c r="X43" s="223"/>
-      <c r="Y43" s="223"/>
-      <c r="Z43" s="223"/>
-      <c r="AA43" s="223"/>
-      <c r="AB43" s="223"/>
-      <c r="AC43" s="223"/>
-      <c r="AD43" s="223"/>
-      <c r="AE43" s="223"/>
-      <c r="AF43" s="223"/>
-      <c r="AG43" s="224"/>
+      <c r="S43" s="248"/>
+      <c r="T43" s="249"/>
+      <c r="U43" s="249"/>
+      <c r="V43" s="249"/>
+      <c r="W43" s="249"/>
+      <c r="X43" s="249"/>
+      <c r="Y43" s="249"/>
+      <c r="Z43" s="249"/>
+      <c r="AA43" s="249"/>
+      <c r="AB43" s="249"/>
+      <c r="AC43" s="249"/>
+      <c r="AD43" s="249"/>
+      <c r="AE43" s="249"/>
+      <c r="AF43" s="249"/>
+      <c r="AG43" s="250"/>
       <c r="AH43" s="87"/>
     </row>
     <row r="44" spans="1:41" customHeight="1" ht="4.5" s="84" customFormat="1">
-      <c r="A44" s="228"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
@@ -4265,21 +4265,21 @@
       <c r="P44" s="88"/>
       <c r="Q44" s="88"/>
       <c r="R44" s="115"/>
-      <c r="S44" s="225"/>
-      <c r="T44" s="226"/>
-      <c r="U44" s="226"/>
-      <c r="V44" s="226"/>
-      <c r="W44" s="226"/>
-      <c r="X44" s="226"/>
-      <c r="Y44" s="226"/>
-      <c r="Z44" s="226"/>
-      <c r="AA44" s="226"/>
-      <c r="AB44" s="226"/>
-      <c r="AC44" s="226"/>
-      <c r="AD44" s="226"/>
-      <c r="AE44" s="226"/>
-      <c r="AF44" s="226"/>
-      <c r="AG44" s="227"/>
+      <c r="S44" s="251"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="252"/>
+      <c r="V44" s="252"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="252"/>
+      <c r="AB44" s="252"/>
+      <c r="AC44" s="252"/>
+      <c r="AD44" s="252"/>
+      <c r="AE44" s="252"/>
+      <c r="AF44" s="252"/>
+      <c r="AG44" s="253"/>
       <c r="AH44" s="87"/>
     </row>
     <row r="45" spans="1:41" customHeight="1" ht="11.25" s="84" customFormat="1">
@@ -4303,57 +4303,57 @@
       <c r="P45" s="88"/>
       <c r="Q45" s="88"/>
       <c r="R45" s="115"/>
-      <c r="S45" s="225"/>
-      <c r="T45" s="226"/>
-      <c r="U45" s="226"/>
-      <c r="V45" s="226"/>
-      <c r="W45" s="226"/>
-      <c r="X45" s="226"/>
-      <c r="Y45" s="226"/>
-      <c r="Z45" s="226"/>
-      <c r="AA45" s="226"/>
-      <c r="AB45" s="226"/>
-      <c r="AC45" s="226"/>
-      <c r="AD45" s="226"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="226"/>
-      <c r="AG45" s="227"/>
+      <c r="S45" s="251"/>
+      <c r="T45" s="252"/>
+      <c r="U45" s="252"/>
+      <c r="V45" s="252"/>
+      <c r="W45" s="252"/>
+      <c r="X45" s="252"/>
+      <c r="Y45" s="252"/>
+      <c r="Z45" s="252"/>
+      <c r="AA45" s="252"/>
+      <c r="AB45" s="252"/>
+      <c r="AC45" s="252"/>
+      <c r="AD45" s="252"/>
+      <c r="AE45" s="252"/>
+      <c r="AF45" s="252"/>
+      <c r="AG45" s="253"/>
       <c r="AH45" s="87"/>
     </row>
     <row r="46" spans="1:41" customHeight="1" ht="7.5" s="84" customFormat="1">
-      <c r="A46" s="228"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="225"/>
-      <c r="T46" s="226"/>
-      <c r="U46" s="226"/>
-      <c r="V46" s="226"/>
-      <c r="W46" s="226"/>
-      <c r="X46" s="226"/>
-      <c r="Y46" s="226"/>
-      <c r="Z46" s="226"/>
-      <c r="AA46" s="226"/>
-      <c r="AB46" s="226"/>
-      <c r="AC46" s="226"/>
-      <c r="AD46" s="226"/>
-      <c r="AE46" s="226"/>
-      <c r="AF46" s="226"/>
-      <c r="AG46" s="227"/>
+      <c r="A46" s="254"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="181"/>
+      <c r="L46" s="181"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="181"/>
+      <c r="O46" s="181"/>
+      <c r="P46" s="181"/>
+      <c r="Q46" s="181"/>
+      <c r="R46" s="217"/>
+      <c r="S46" s="251"/>
+      <c r="T46" s="252"/>
+      <c r="U46" s="252"/>
+      <c r="V46" s="252"/>
+      <c r="W46" s="252"/>
+      <c r="X46" s="252"/>
+      <c r="Y46" s="252"/>
+      <c r="Z46" s="252"/>
+      <c r="AA46" s="252"/>
+      <c r="AB46" s="252"/>
+      <c r="AC46" s="252"/>
+      <c r="AD46" s="252"/>
+      <c r="AE46" s="252"/>
+      <c r="AF46" s="252"/>
+      <c r="AG46" s="253"/>
       <c r="AH46" s="87"/>
     </row>
     <row r="47" spans="1:41" customHeight="1" ht="11.25" s="84" customFormat="1">
@@ -4379,21 +4379,21 @@
       <c r="P47" s="88"/>
       <c r="Q47" s="88"/>
       <c r="R47" s="115"/>
-      <c r="S47" s="225"/>
-      <c r="T47" s="226"/>
-      <c r="U47" s="226"/>
-      <c r="V47" s="226"/>
-      <c r="W47" s="226"/>
-      <c r="X47" s="226"/>
-      <c r="Y47" s="226"/>
-      <c r="Z47" s="226"/>
-      <c r="AA47" s="226"/>
-      <c r="AB47" s="226"/>
-      <c r="AC47" s="226"/>
-      <c r="AD47" s="226"/>
-      <c r="AE47" s="226"/>
-      <c r="AF47" s="226"/>
-      <c r="AG47" s="227"/>
+      <c r="S47" s="251"/>
+      <c r="T47" s="252"/>
+      <c r="U47" s="252"/>
+      <c r="V47" s="252"/>
+      <c r="W47" s="252"/>
+      <c r="X47" s="252"/>
+      <c r="Y47" s="252"/>
+      <c r="Z47" s="252"/>
+      <c r="AA47" s="252"/>
+      <c r="AB47" s="252"/>
+      <c r="AC47" s="252"/>
+      <c r="AD47" s="252"/>
+      <c r="AE47" s="252"/>
+      <c r="AF47" s="252"/>
+      <c r="AG47" s="253"/>
       <c r="AH47" s="87"/>
     </row>
     <row r="48" spans="1:41" customHeight="1" ht="11.25" s="84" customFormat="1">
@@ -4417,333 +4417,333 @@
       <c r="P48" s="88"/>
       <c r="Q48" s="88"/>
       <c r="R48" s="115"/>
-      <c r="S48" s="225"/>
-      <c r="T48" s="226"/>
-      <c r="U48" s="226"/>
-      <c r="V48" s="226"/>
-      <c r="W48" s="226"/>
-      <c r="X48" s="226"/>
-      <c r="Y48" s="226"/>
-      <c r="Z48" s="226"/>
-      <c r="AA48" s="226"/>
-      <c r="AB48" s="226"/>
-      <c r="AC48" s="226"/>
-      <c r="AD48" s="226"/>
-      <c r="AE48" s="226"/>
-      <c r="AF48" s="226"/>
-      <c r="AG48" s="227"/>
+      <c r="S48" s="251"/>
+      <c r="T48" s="252"/>
+      <c r="U48" s="252"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="252"/>
+      <c r="X48" s="252"/>
+      <c r="Y48" s="252"/>
+      <c r="Z48" s="252"/>
+      <c r="AA48" s="252"/>
+      <c r="AB48" s="252"/>
+      <c r="AC48" s="252"/>
+      <c r="AD48" s="252"/>
+      <c r="AE48" s="252"/>
+      <c r="AF48" s="252"/>
+      <c r="AG48" s="253"/>
       <c r="AH48" s="87"/>
     </row>
     <row r="49" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="229"/>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
-      <c r="N49" s="154"/>
-      <c r="O49" s="154"/>
-      <c r="P49" s="154"/>
-      <c r="Q49" s="154"/>
-      <c r="R49" s="155"/>
-      <c r="S49" s="169" t="s">
+      <c r="B49" s="256"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="256"/>
+      <c r="E49" s="259"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="181"/>
+      <c r="K49" s="181"/>
+      <c r="L49" s="181"/>
+      <c r="M49" s="181"/>
+      <c r="N49" s="181"/>
+      <c r="O49" s="181"/>
+      <c r="P49" s="181"/>
+      <c r="Q49" s="181"/>
+      <c r="R49" s="217"/>
+      <c r="S49" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="T49" s="170"/>
-      <c r="U49" s="170"/>
-      <c r="V49" s="231"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="162"/>
-      <c r="Y49" s="162"/>
-      <c r="Z49" s="162"/>
-      <c r="AA49" s="162"/>
-      <c r="AB49" s="162"/>
-      <c r="AC49" s="162"/>
-      <c r="AD49" s="162"/>
-      <c r="AE49" s="162"/>
-      <c r="AF49" s="162"/>
-      <c r="AG49" s="163"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="263"/>
+      <c r="V49" s="264"/>
+      <c r="W49" s="268"/>
+      <c r="X49" s="269"/>
+      <c r="Y49" s="269"/>
+      <c r="Z49" s="269"/>
+      <c r="AA49" s="269"/>
+      <c r="AB49" s="269"/>
+      <c r="AC49" s="269"/>
+      <c r="AD49" s="269"/>
+      <c r="AE49" s="269"/>
+      <c r="AF49" s="269"/>
+      <c r="AG49" s="270"/>
       <c r="AH49" s="87"/>
     </row>
     <row r="50" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A50" s="195"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="174"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="175"/>
-      <c r="L50" s="175"/>
-      <c r="M50" s="175"/>
-      <c r="N50" s="175"/>
-      <c r="O50" s="175"/>
-      <c r="P50" s="175"/>
-      <c r="Q50" s="175"/>
-      <c r="R50" s="230"/>
-      <c r="S50" s="171"/>
-      <c r="T50" s="165"/>
-      <c r="U50" s="165"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="164"/>
-      <c r="X50" s="165"/>
-      <c r="Y50" s="165"/>
-      <c r="Z50" s="165"/>
-      <c r="AA50" s="165"/>
-      <c r="AB50" s="165"/>
-      <c r="AC50" s="165"/>
-      <c r="AD50" s="165"/>
-      <c r="AE50" s="165"/>
-      <c r="AF50" s="165"/>
-      <c r="AG50" s="166"/>
+      <c r="A50" s="257"/>
+      <c r="B50" s="258"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="261"/>
+      <c r="I50" s="261"/>
+      <c r="J50" s="261"/>
+      <c r="K50" s="261"/>
+      <c r="L50" s="261"/>
+      <c r="M50" s="261"/>
+      <c r="N50" s="261"/>
+      <c r="O50" s="261"/>
+      <c r="P50" s="261"/>
+      <c r="Q50" s="261"/>
+      <c r="R50" s="262"/>
+      <c r="S50" s="265"/>
+      <c r="T50" s="266"/>
+      <c r="U50" s="266"/>
+      <c r="V50" s="267"/>
+      <c r="W50" s="271"/>
+      <c r="X50" s="266"/>
+      <c r="Y50" s="266"/>
+      <c r="Z50" s="266"/>
+      <c r="AA50" s="266"/>
+      <c r="AB50" s="266"/>
+      <c r="AC50" s="266"/>
+      <c r="AD50" s="266"/>
+      <c r="AE50" s="266"/>
+      <c r="AF50" s="266"/>
+      <c r="AG50" s="272"/>
       <c r="AH50" s="87"/>
     </row>
     <row r="51" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A51" s="184" t="s">
+      <c r="A51" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="198" t="s">
+      <c r="B51" s="274"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="275"/>
+      <c r="E51" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="199"/>
-      <c r="K51" s="199"/>
-      <c r="L51" s="199"/>
-      <c r="M51" s="199"/>
-      <c r="N51" s="199"/>
-      <c r="O51" s="199"/>
-      <c r="P51" s="199"/>
-      <c r="Q51" s="199"/>
-      <c r="R51" s="200"/>
-      <c r="S51" s="184" t="s">
+      <c r="F51" s="278"/>
+      <c r="G51" s="278"/>
+      <c r="H51" s="278"/>
+      <c r="I51" s="278"/>
+      <c r="J51" s="278"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="278"/>
+      <c r="M51" s="278"/>
+      <c r="N51" s="278"/>
+      <c r="O51" s="278"/>
+      <c r="P51" s="278"/>
+      <c r="Q51" s="278"/>
+      <c r="R51" s="279"/>
+      <c r="S51" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="162"/>
-      <c r="U51" s="162"/>
-      <c r="V51" s="204"/>
-      <c r="W51" s="206" t="s">
+      <c r="T51" s="269"/>
+      <c r="U51" s="269"/>
+      <c r="V51" s="283"/>
+      <c r="W51" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="X51" s="207"/>
-      <c r="Y51" s="207"/>
-      <c r="Z51" s="207"/>
-      <c r="AA51" s="207"/>
-      <c r="AB51" s="207"/>
-      <c r="AC51" s="207"/>
-      <c r="AD51" s="207"/>
-      <c r="AE51" s="207"/>
-      <c r="AF51" s="207"/>
-      <c r="AG51" s="208"/>
+      <c r="X51" s="285"/>
+      <c r="Y51" s="285"/>
+      <c r="Z51" s="285"/>
+      <c r="AA51" s="285"/>
+      <c r="AB51" s="285"/>
+      <c r="AC51" s="285"/>
+      <c r="AD51" s="285"/>
+      <c r="AE51" s="285"/>
+      <c r="AF51" s="285"/>
+      <c r="AG51" s="286"/>
       <c r="AH51" s="87"/>
     </row>
     <row r="52" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A52" s="195"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="202"/>
-      <c r="G52" s="202"/>
-      <c r="H52" s="202"/>
-      <c r="I52" s="202"/>
-      <c r="J52" s="202"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="202"/>
-      <c r="M52" s="202"/>
-      <c r="N52" s="202"/>
-      <c r="O52" s="202"/>
-      <c r="P52" s="202"/>
-      <c r="Q52" s="202"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="171"/>
-      <c r="T52" s="165"/>
-      <c r="U52" s="165"/>
-      <c r="V52" s="205"/>
-      <c r="W52" s="209"/>
-      <c r="X52" s="210"/>
-      <c r="Y52" s="210"/>
-      <c r="Z52" s="210"/>
-      <c r="AA52" s="210"/>
-      <c r="AB52" s="210"/>
-      <c r="AC52" s="210"/>
-      <c r="AD52" s="210"/>
-      <c r="AE52" s="210"/>
-      <c r="AF52" s="210"/>
-      <c r="AG52" s="211"/>
+      <c r="A52" s="257"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="280"/>
+      <c r="F52" s="281"/>
+      <c r="G52" s="281"/>
+      <c r="H52" s="281"/>
+      <c r="I52" s="281"/>
+      <c r="J52" s="281"/>
+      <c r="K52" s="281"/>
+      <c r="L52" s="281"/>
+      <c r="M52" s="281"/>
+      <c r="N52" s="281"/>
+      <c r="O52" s="281"/>
+      <c r="P52" s="281"/>
+      <c r="Q52" s="281"/>
+      <c r="R52" s="282"/>
+      <c r="S52" s="265"/>
+      <c r="T52" s="266"/>
+      <c r="U52" s="266"/>
+      <c r="V52" s="267"/>
+      <c r="W52" s="287"/>
+      <c r="X52" s="288"/>
+      <c r="Y52" s="288"/>
+      <c r="Z52" s="288"/>
+      <c r="AA52" s="288"/>
+      <c r="AB52" s="288"/>
+      <c r="AC52" s="288"/>
+      <c r="AD52" s="288"/>
+      <c r="AE52" s="288"/>
+      <c r="AF52" s="288"/>
+      <c r="AG52" s="289"/>
       <c r="AH52" s="87"/>
     </row>
     <row r="53" spans="1:41" customHeight="1" ht="18" s="84" customFormat="1">
-      <c r="A53" s="184" t="s">
+      <c r="A53" s="273" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="161" t="s">
+      <c r="B53" s="269"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="268" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="162"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="184" t="s">
+      <c r="F53" s="269"/>
+      <c r="G53" s="269"/>
+      <c r="H53" s="269"/>
+      <c r="I53" s="269"/>
+      <c r="J53" s="269"/>
+      <c r="K53" s="269"/>
+      <c r="L53" s="269"/>
+      <c r="M53" s="269"/>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="270"/>
+      <c r="S53" s="273" t="s">
         <v>60</v>
       </c>
-      <c r="T53" s="162"/>
-      <c r="U53" s="162"/>
-      <c r="V53" s="204"/>
-      <c r="W53" s="161" t="s">
+      <c r="T53" s="269"/>
+      <c r="U53" s="269"/>
+      <c r="V53" s="283"/>
+      <c r="W53" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="X53" s="162"/>
-      <c r="Y53" s="162"/>
-      <c r="Z53" s="162"/>
-      <c r="AA53" s="162"/>
-      <c r="AB53" s="162"/>
-      <c r="AC53" s="162"/>
-      <c r="AD53" s="162"/>
-      <c r="AE53" s="162"/>
-      <c r="AF53" s="162"/>
-      <c r="AG53" s="163"/>
+      <c r="X53" s="269"/>
+      <c r="Y53" s="269"/>
+      <c r="Z53" s="269"/>
+      <c r="AA53" s="269"/>
+      <c r="AB53" s="269"/>
+      <c r="AC53" s="269"/>
+      <c r="AD53" s="269"/>
+      <c r="AE53" s="269"/>
+      <c r="AF53" s="269"/>
+      <c r="AG53" s="270"/>
       <c r="AH53" s="141"/>
     </row>
     <row r="54" spans="1:41" customHeight="1" ht="15.6" s="84" customFormat="1">
-      <c r="A54" s="171"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="165"/>
-      <c r="L54" s="165"/>
-      <c r="M54" s="165"/>
-      <c r="N54" s="165"/>
-      <c r="O54" s="165"/>
-      <c r="P54" s="165"/>
-      <c r="Q54" s="165"/>
-      <c r="R54" s="166"/>
-      <c r="S54" s="171"/>
-      <c r="T54" s="165"/>
-      <c r="U54" s="165"/>
-      <c r="V54" s="205"/>
-      <c r="W54" s="164"/>
-      <c r="X54" s="165"/>
-      <c r="Y54" s="165"/>
-      <c r="Z54" s="165"/>
-      <c r="AA54" s="165"/>
-      <c r="AB54" s="165"/>
-      <c r="AC54" s="165"/>
-      <c r="AD54" s="165"/>
-      <c r="AE54" s="165"/>
-      <c r="AF54" s="165"/>
-      <c r="AG54" s="166"/>
+      <c r="A54" s="265"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="266"/>
+      <c r="N54" s="266"/>
+      <c r="O54" s="266"/>
+      <c r="P54" s="266"/>
+      <c r="Q54" s="266"/>
+      <c r="R54" s="272"/>
+      <c r="S54" s="265"/>
+      <c r="T54" s="266"/>
+      <c r="U54" s="266"/>
+      <c r="V54" s="267"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="266"/>
+      <c r="Y54" s="266"/>
+      <c r="Z54" s="266"/>
+      <c r="AA54" s="266"/>
+      <c r="AB54" s="266"/>
+      <c r="AC54" s="266"/>
+      <c r="AD54" s="266"/>
+      <c r="AE54" s="266"/>
+      <c r="AF54" s="266"/>
+      <c r="AG54" s="272"/>
       <c r="AH54" s="87"/>
     </row>
     <row r="55" spans="1:41" customHeight="1" ht="15" s="84" customFormat="1">
-      <c r="A55" s="184" t="s">
+      <c r="A55" s="273" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="162"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="154"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="155"/>
-      <c r="S55" s="184" t="s">
+      <c r="B55" s="269"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="259"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="181"/>
+      <c r="K55" s="181"/>
+      <c r="L55" s="181"/>
+      <c r="M55" s="181"/>
+      <c r="N55" s="181"/>
+      <c r="O55" s="181"/>
+      <c r="P55" s="181"/>
+      <c r="Q55" s="181"/>
+      <c r="R55" s="217"/>
+      <c r="S55" s="273" t="s">
         <v>63</v>
       </c>
-      <c r="T55" s="162"/>
-      <c r="U55" s="162"/>
-      <c r="V55" s="204"/>
-      <c r="W55" s="161"/>
-      <c r="X55" s="162"/>
-      <c r="Y55" s="162"/>
-      <c r="Z55" s="162"/>
-      <c r="AA55" s="162"/>
-      <c r="AB55" s="162"/>
-      <c r="AC55" s="162"/>
-      <c r="AD55" s="162"/>
-      <c r="AE55" s="162"/>
-      <c r="AF55" s="162"/>
-      <c r="AG55" s="163"/>
+      <c r="T55" s="269"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="283"/>
+      <c r="W55" s="268"/>
+      <c r="X55" s="269"/>
+      <c r="Y55" s="269"/>
+      <c r="Z55" s="269"/>
+      <c r="AA55" s="269"/>
+      <c r="AB55" s="269"/>
+      <c r="AC55" s="269"/>
+      <c r="AD55" s="269"/>
+      <c r="AE55" s="269"/>
+      <c r="AF55" s="269"/>
+      <c r="AG55" s="270"/>
       <c r="AH55" s="87"/>
     </row>
     <row r="56" spans="1:41" customHeight="1" ht="15.75" s="84" customFormat="1">
-      <c r="A56" s="212"/>
-      <c r="B56" s="213"/>
-      <c r="C56" s="213"/>
-      <c r="D56" s="214"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="156"/>
-      <c r="R56" s="157"/>
-      <c r="S56" s="216"/>
-      <c r="T56" s="217"/>
-      <c r="U56" s="217"/>
-      <c r="V56" s="218"/>
-      <c r="W56" s="219"/>
-      <c r="X56" s="217"/>
-      <c r="Y56" s="217"/>
-      <c r="Z56" s="217"/>
-      <c r="AA56" s="217"/>
-      <c r="AB56" s="217"/>
-      <c r="AC56" s="217"/>
-      <c r="AD56" s="217"/>
-      <c r="AE56" s="217"/>
-      <c r="AF56" s="217"/>
-      <c r="AG56" s="220"/>
+      <c r="A56" s="290"/>
+      <c r="B56" s="291"/>
+      <c r="C56" s="291"/>
+      <c r="D56" s="292"/>
+      <c r="E56" s="293"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="180"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="180"/>
+      <c r="N56" s="180"/>
+      <c r="O56" s="180"/>
+      <c r="P56" s="180"/>
+      <c r="Q56" s="180"/>
+      <c r="R56" s="294"/>
+      <c r="S56" s="295"/>
+      <c r="T56" s="296"/>
+      <c r="U56" s="296"/>
+      <c r="V56" s="297"/>
+      <c r="W56" s="298"/>
+      <c r="X56" s="296"/>
+      <c r="Y56" s="296"/>
+      <c r="Z56" s="296"/>
+      <c r="AA56" s="296"/>
+      <c r="AB56" s="296"/>
+      <c r="AC56" s="296"/>
+      <c r="AD56" s="296"/>
+      <c r="AE56" s="296"/>
+      <c r="AF56" s="296"/>
+      <c r="AG56" s="299"/>
       <c r="AH56" s="87"/>
     </row>
     <row r="57" spans="1:41" customHeight="1" ht="13.5" s="84" customFormat="1">
@@ -4783,45 +4783,45 @@
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="167"/>
-      <c r="AF57" s="167"/>
-      <c r="AG57" s="168"/>
+      <c r="AE57" s="187"/>
+      <c r="AF57" s="187"/>
+      <c r="AG57" s="188"/>
       <c r="AH57" s="87"/>
     </row>
     <row r="58" spans="1:41" customHeight="1" ht="12.75" s="84" customFormat="1">
-      <c r="A58" s="169" t="s">
+      <c r="A58" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
+      <c r="B58" s="263"/>
+      <c r="C58" s="263"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="177" t="s">
+      <c r="E58" s="259"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="181"/>
+      <c r="M58" s="305"/>
+      <c r="N58" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="178"/>
-      <c r="P58" s="178"/>
-      <c r="Q58" s="178"/>
-      <c r="R58" s="179"/>
-      <c r="S58" s="183" t="s">
+      <c r="O58" s="308"/>
+      <c r="P58" s="308"/>
+      <c r="Q58" s="308"/>
+      <c r="R58" s="309"/>
+      <c r="S58" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="T58" s="178"/>
-      <c r="U58" s="178"/>
-      <c r="V58" s="178"/>
-      <c r="W58" s="178"/>
-      <c r="X58" s="178"/>
-      <c r="Y58" s="178"/>
-      <c r="Z58" s="178"/>
-      <c r="AA58" s="179"/>
+      <c r="T58" s="308"/>
+      <c r="U58" s="308"/>
+      <c r="V58" s="308"/>
+      <c r="W58" s="308"/>
+      <c r="X58" s="308"/>
+      <c r="Y58" s="308"/>
+      <c r="Z58" s="308"/>
+      <c r="AA58" s="309"/>
       <c r="AB58" s="93"/>
       <c r="AC58" s="93"/>
       <c r="AD58" s="93"/>
@@ -4830,34 +4830,34 @@
       <c r="AG58" s="95"/>
       <c r="AH58" s="87"/>
     </row>
-    <row r="59" spans="1:41" customHeight="1" ht="13.95" s="84" customFormat="1">
-      <c r="A59" s="171"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
+    <row r="59" spans="1:41" customHeight="1" ht="13.9" s="84" customFormat="1">
+      <c r="A59" s="265"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
       <c r="D59" s="138"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="175"/>
-      <c r="G59" s="175"/>
-      <c r="H59" s="175"/>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="176"/>
-      <c r="N59" s="180"/>
-      <c r="O59" s="181"/>
-      <c r="P59" s="181"/>
-      <c r="Q59" s="181"/>
-      <c r="R59" s="182"/>
-      <c r="S59" s="180"/>
-      <c r="T59" s="181"/>
-      <c r="U59" s="181"/>
-      <c r="V59" s="181"/>
-      <c r="W59" s="181"/>
-      <c r="X59" s="181"/>
-      <c r="Y59" s="181"/>
-      <c r="Z59" s="181"/>
-      <c r="AA59" s="182"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="261"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="261"/>
+      <c r="K59" s="261"/>
+      <c r="L59" s="261"/>
+      <c r="M59" s="306"/>
+      <c r="N59" s="310"/>
+      <c r="O59" s="311"/>
+      <c r="P59" s="311"/>
+      <c r="Q59" s="311"/>
+      <c r="R59" s="312"/>
+      <c r="S59" s="310"/>
+      <c r="T59" s="311"/>
+      <c r="U59" s="311"/>
+      <c r="V59" s="311"/>
+      <c r="W59" s="311"/>
+      <c r="X59" s="311"/>
+      <c r="Y59" s="311"/>
+      <c r="Z59" s="311"/>
+      <c r="AA59" s="312"/>
       <c r="AB59" s="138"/>
       <c r="AC59" s="138"/>
       <c r="AD59" s="139"/>
@@ -4867,121 +4867,121 @@
       <c r="AH59" s="87"/>
     </row>
     <row r="60" spans="1:41" customHeight="1" ht="12.75" s="84" customFormat="1">
-      <c r="A60" s="184" t="s">
+      <c r="A60" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="185"/>
-      <c r="C60" s="185"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="185"/>
-      <c r="H60" s="185"/>
-      <c r="I60" s="185"/>
-      <c r="J60" s="185"/>
-      <c r="K60" s="185"/>
-      <c r="L60" s="185"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="189" t="s">
+      <c r="B60" s="300"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="314"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="300"/>
+      <c r="G60" s="300"/>
+      <c r="H60" s="300"/>
+      <c r="I60" s="300"/>
+      <c r="J60" s="300"/>
+      <c r="K60" s="300"/>
+      <c r="L60" s="300"/>
+      <c r="M60" s="314"/>
+      <c r="N60" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="190"/>
-      <c r="P60" s="190"/>
-      <c r="Q60" s="190"/>
-      <c r="R60" s="191"/>
-      <c r="S60" s="189" t="s">
+      <c r="O60" s="318"/>
+      <c r="P60" s="318"/>
+      <c r="Q60" s="318"/>
+      <c r="R60" s="319"/>
+      <c r="S60" s="317" t="s">
         <v>70</v>
       </c>
-      <c r="T60" s="190"/>
-      <c r="U60" s="190"/>
-      <c r="V60" s="190"/>
-      <c r="W60" s="190"/>
-      <c r="X60" s="190"/>
-      <c r="Y60" s="190"/>
-      <c r="Z60" s="190"/>
-      <c r="AA60" s="191"/>
+      <c r="T60" s="318"/>
+      <c r="U60" s="318"/>
+      <c r="V60" s="318"/>
+      <c r="W60" s="318"/>
+      <c r="X60" s="318"/>
+      <c r="Y60" s="318"/>
+      <c r="Z60" s="318"/>
+      <c r="AA60" s="319"/>
       <c r="AB60" s="143" t="s">
         <v>63</v>
       </c>
       <c r="AC60" s="143"/>
-      <c r="AD60" s="185"/>
-      <c r="AE60" s="185"/>
-      <c r="AF60" s="185"/>
-      <c r="AG60" s="192"/>
+      <c r="AD60" s="300"/>
+      <c r="AE60" s="300"/>
+      <c r="AF60" s="300"/>
+      <c r="AG60" s="301"/>
       <c r="AH60" s="87"/>
     </row>
     <row r="61" spans="1:41" customHeight="1" ht="9.6" s="84" customFormat="1">
-      <c r="A61" s="187"/>
-      <c r="B61" s="175"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="174"/>
-      <c r="F61" s="175"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="176"/>
-      <c r="N61" s="180"/>
-      <c r="O61" s="181"/>
-      <c r="P61" s="181"/>
-      <c r="Q61" s="181"/>
-      <c r="R61" s="182"/>
-      <c r="S61" s="180"/>
-      <c r="T61" s="181"/>
-      <c r="U61" s="181"/>
-      <c r="V61" s="181"/>
-      <c r="W61" s="181"/>
-      <c r="X61" s="181"/>
-      <c r="Y61" s="181"/>
-      <c r="Z61" s="181"/>
-      <c r="AA61" s="182"/>
-      <c r="AB61" s="154"/>
-      <c r="AC61" s="154"/>
-      <c r="AD61" s="154"/>
-      <c r="AE61" s="154"/>
-      <c r="AF61" s="154"/>
-      <c r="AG61" s="155"/>
+      <c r="A61" s="315"/>
+      <c r="B61" s="261"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="306"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="261"/>
+      <c r="G61" s="261"/>
+      <c r="H61" s="261"/>
+      <c r="I61" s="261"/>
+      <c r="J61" s="261"/>
+      <c r="K61" s="261"/>
+      <c r="L61" s="261"/>
+      <c r="M61" s="306"/>
+      <c r="N61" s="310"/>
+      <c r="O61" s="311"/>
+      <c r="P61" s="311"/>
+      <c r="Q61" s="311"/>
+      <c r="R61" s="312"/>
+      <c r="S61" s="310"/>
+      <c r="T61" s="311"/>
+      <c r="U61" s="311"/>
+      <c r="V61" s="311"/>
+      <c r="W61" s="311"/>
+      <c r="X61" s="311"/>
+      <c r="Y61" s="311"/>
+      <c r="Z61" s="311"/>
+      <c r="AA61" s="312"/>
+      <c r="AB61" s="181"/>
+      <c r="AC61" s="181"/>
+      <c r="AD61" s="181"/>
+      <c r="AE61" s="181"/>
+      <c r="AF61" s="181"/>
+      <c r="AG61" s="217"/>
       <c r="AH61" s="87"/>
     </row>
     <row r="62" spans="1:41" customHeight="1" ht="15.6" s="84" customFormat="1">
-      <c r="A62" s="158" t="s">
+      <c r="A62" s="302" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="159"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
-      <c r="O62" s="159"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="159"/>
-      <c r="R62" s="159"/>
-      <c r="S62" s="159"/>
-      <c r="T62" s="159"/>
-      <c r="U62" s="159"/>
-      <c r="V62" s="159"/>
-      <c r="W62" s="159"/>
-      <c r="X62" s="159"/>
-      <c r="Y62" s="159"/>
-      <c r="Z62" s="159"/>
-      <c r="AA62" s="160"/>
-      <c r="AB62" s="156"/>
-      <c r="AC62" s="156"/>
-      <c r="AD62" s="156"/>
-      <c r="AE62" s="156"/>
-      <c r="AF62" s="156"/>
-      <c r="AG62" s="157"/>
+      <c r="B62" s="303"/>
+      <c r="C62" s="303"/>
+      <c r="D62" s="303"/>
+      <c r="E62" s="303"/>
+      <c r="F62" s="303"/>
+      <c r="G62" s="303"/>
+      <c r="H62" s="303"/>
+      <c r="I62" s="303"/>
+      <c r="J62" s="303"/>
+      <c r="K62" s="303"/>
+      <c r="L62" s="303"/>
+      <c r="M62" s="303"/>
+      <c r="N62" s="303"/>
+      <c r="O62" s="303"/>
+      <c r="P62" s="303"/>
+      <c r="Q62" s="303"/>
+      <c r="R62" s="303"/>
+      <c r="S62" s="303"/>
+      <c r="T62" s="303"/>
+      <c r="U62" s="303"/>
+      <c r="V62" s="303"/>
+      <c r="W62" s="303"/>
+      <c r="X62" s="303"/>
+      <c r="Y62" s="303"/>
+      <c r="Z62" s="303"/>
+      <c r="AA62" s="304"/>
+      <c r="AB62" s="180"/>
+      <c r="AC62" s="180"/>
+      <c r="AD62" s="180"/>
+      <c r="AE62" s="180"/>
+      <c r="AF62" s="180"/>
+      <c r="AG62" s="294"/>
       <c r="AH62" s="144"/>
       <c r="AI62" s="85"/>
       <c r="AJ62" s="85"/>
@@ -4991,79 +4991,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="A4:AA6"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="S10:AA10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="E10:R11"/>
-    <mergeCell ref="E7:AG7"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B31:AG31"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="E12:R13"/>
-    <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="B34:AF34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="L36:X36"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="X38:AB38"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="T42:AD42"/>
-    <mergeCell ref="S43:AG48"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
     <mergeCell ref="AD60:AG60"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="B28:P28"/>
@@ -5075,10 +5002,83 @@
     <mergeCell ref="A58:C59"/>
     <mergeCell ref="E58:M59"/>
     <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="T42:AD42"/>
+    <mergeCell ref="S43:AG48"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="B33:AF33"/>
+    <mergeCell ref="B34:AF34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="L36:X36"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="B31:AG31"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="E12:R13"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="A4:AA6"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="S10:AA10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="E10:R11"/>
+    <mergeCell ref="E7:AG7"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B22:P22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="84" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="74" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
     <oddFooter/>
@@ -5104,108 +5104,108 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.109375" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.109375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="14.5546875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.6640625" customWidth="true" style="0"/>
-    <col min="7" max="7" width="3.5546875" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.109375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="3.5546875" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12.6640625" customWidth="true" style="0"/>
-    <col min="11" max="11" width="3.5546875" customWidth="true" style="0"/>
-    <col min="12" max="12" width="14.44140625" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3.5546875" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13.6640625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.5703125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.140625" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.140625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="14.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3.5703125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.140625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="3.5703125" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true" style="0"/>
+    <col min="11" max="11" width="3.5703125" customWidth="true" style="0"/>
+    <col min="12" max="12" width="14.42578125" customWidth="true" style="0"/>
+    <col min="13" max="13" width="3.5703125" customWidth="true" style="0"/>
+    <col min="14" max="14" width="13.7109375" customWidth="true" style="0"/>
     <col min="15" max="15" width="4" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" customHeight="1" ht="18">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" customHeight="1" ht="18">
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
-      <c r="N4" s="326"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="322"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" customHeight="1" ht="23.1">
-      <c r="B5" s="327" t="s">
+      <c r="B5" s="323" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="327"/>
-      <c r="H5" s="327"/>
-      <c r="I5" s="327"/>
-      <c r="J5" s="327"/>
-      <c r="K5" s="327"/>
-      <c r="L5" s="327"/>
-      <c r="M5" s="327"/>
-      <c r="N5" s="327"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="323"/>
+      <c r="N5" s="323"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" customHeight="1" ht="15.75">
-      <c r="B6" s="328" t="s">
+      <c r="B6" s="324" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="328"/>
-      <c r="E6" s="328"/>
-      <c r="F6" s="328"/>
-      <c r="G6" s="328"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="328"/>
-      <c r="L6" s="328"/>
-      <c r="M6" s="328"/>
-      <c r="N6" s="328"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" customHeight="1" ht="15.75">
@@ -5217,10 +5217,10 @@
       <c r="G7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="325" t="s">
+      <c r="K7" s="320" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="325"/>
+      <c r="L7" s="320"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
@@ -5260,52 +5260,52 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" customHeight="1" ht="4.5">
-      <c r="B10" s="320"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
-      <c r="M10" s="320"/>
-      <c r="N10" s="320"/>
+      <c r="B10" s="321"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="321"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="321"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" customHeight="1" ht="38.25">
       <c r="B11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="321" t="s">
+      <c r="C11" s="325" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="322"/>
+      <c r="D11" s="326"/>
       <c r="E11" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="323" t="s">
+      <c r="F11" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="324"/>
-      <c r="H11" s="323" t="s">
+      <c r="G11" s="328"/>
+      <c r="H11" s="327" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="324"/>
-      <c r="J11" s="323" t="s">
+      <c r="I11" s="328"/>
+      <c r="J11" s="327" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="324"/>
-      <c r="L11" s="321" t="s">
+      <c r="K11" s="328"/>
+      <c r="L11" s="325" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="322"/>
-      <c r="N11" s="323" t="s">
+      <c r="M11" s="326"/>
+      <c r="N11" s="327" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="324"/>
+      <c r="O11" s="328"/>
     </row>
     <row r="12" spans="1:15" customHeight="1" ht="23.1">
       <c r="B12" s="10"/>
@@ -5727,12 +5727,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
@@ -5740,6 +5734,12 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5768,20 +5768,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="true" style="33"/>
+    <col min="1" max="1" width="5.7109375" customWidth="true" style="33"/>
     <col min="2" max="2" width="11" customWidth="true" style="33"/>
     <col min="3" max="3" width="11" customWidth="true" style="33"/>
-    <col min="4" max="4" width="15.33203125" customWidth="true" style="33"/>
-    <col min="5" max="5" width="12.44140625" customWidth="true" style="33"/>
-    <col min="6" max="6" width="19.109375" customWidth="true" style="33"/>
-    <col min="7" max="7" width="37.44140625" customWidth="true" style="33"/>
-    <col min="8" max="8" width="29.5546875" customWidth="true" style="33"/>
-    <col min="9" max="9" width="19.88671875" customWidth="true" style="33"/>
-    <col min="10" max="10" width="23.5546875" customWidth="true" style="33"/>
-    <col min="11" max="11" width="1.5546875" customWidth="true" style="33"/>
-    <col min="12" max="12" width="3.44140625" customWidth="true" style="33"/>
-    <col min="13" max="13" width="9.109375" customWidth="true" style="33"/>
-    <col min="14" max="14" width="9.109375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.28515625" customWidth="true" style="33"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true" style="33"/>
+    <col min="6" max="6" width="19.140625" customWidth="true" style="33"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true" style="33"/>
+    <col min="8" max="8" width="29.5703125" customWidth="true" style="33"/>
+    <col min="9" max="9" width="19.85546875" customWidth="true" style="33"/>
+    <col min="10" max="10" width="23.5703125" customWidth="true" style="33"/>
+    <col min="11" max="11" width="1.5703125" customWidth="true" style="33"/>
+    <col min="12" max="12" width="3.42578125" customWidth="true" style="33"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="33"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="28.5"/>
@@ -5802,13 +5802,13 @@
       <c r="B3" s="335" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
       <c r="J3" s="336"/>
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="15.75" s="36" customFormat="1">
@@ -6072,7 +6072,7 @@
       <c r="J21" s="332"/>
       <c r="L21" s="71"/>
     </row>
-    <row r="22" spans="1:14" customHeight="1" ht="15.6">
+    <row r="22" spans="1:14">
       <c r="B22" s="37"/>
       <c r="D22" s="33" t="s">
         <v>119</v>
@@ -6082,7 +6082,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customHeight="1" ht="15.6">
+    <row r="23" spans="1:14">
       <c r="B23" s="37"/>
       <c r="D23" s="33" t="s">
         <v>121</v>
@@ -6090,7 +6090,7 @@
       <c r="J23" s="39"/>
       <c r="L23" s="333"/>
     </row>
-    <row r="24" spans="1:14" customHeight="1" ht="15.6">
+    <row r="24" spans="1:14">
       <c r="A24" s="334" t="s">
         <v>122</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="J26" s="39"/>
       <c r="L26" s="333"/>
     </row>
-    <row r="27" spans="1:14" customHeight="1" ht="15.6">
+    <row r="27" spans="1:14">
       <c r="A27" s="334"/>
       <c r="B27" s="37"/>
       <c r="J27" s="39"/>
